--- a/spark/experiments/linear-scaling-of-cpu.xlsx
+++ b/spark/experiments/linear-scaling-of-cpu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>percentile95-warmup (s)</t>
   </si>
@@ -54,6 +54,75 @@
   </si>
   <si>
     <t>experiment with caching</t>
+  </si>
+  <si>
+    <t>g3.2-3t-with-cache</t>
+  </si>
+  <si>
+    <t>pods</t>
+  </si>
+  <si>
+    <t>memory/pod</t>
+  </si>
+  <si>
+    <t>cores/pod</t>
+  </si>
+  <si>
+    <t>c8m16</t>
+  </si>
+  <si>
+    <t>c8m32</t>
+  </si>
+  <si>
+    <t>node architecture</t>
+  </si>
+  <si>
+    <t>storage fraction</t>
+  </si>
+  <si>
+    <t>memoryfraction</t>
+  </si>
+  <si>
+    <t>g3.2-3t-with-cache-bursty-QoS</t>
+  </si>
+  <si>
+    <t>g3.2-3t-with-cache-bursty-QoS-lower-storage fraction</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>21+</t>
+  </si>
+  <si>
+    <t>g2.2-2t-no-cache</t>
+  </si>
+  <si>
+    <t>effect of garbage collection??</t>
+  </si>
+  <si>
+    <t>g2.2-3t-with-cache</t>
+  </si>
+  <si>
+    <t>g2.1-3t-with cache</t>
+  </si>
+  <si>
+    <t>if difference between sql queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1: select * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2: select co,c6  * </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>not executed</t>
   </si>
 </sst>
 </file>
@@ -371,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,84 +455,422 @@
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.7897178555499993</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>95.612542050999991</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.99894212334999932</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>97.149638194000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.5544167172999996</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>99.357644473649998</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.58078592439999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>103.71409949250001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.3435994724999998</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>100.27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.65959319780000014</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>104.61617613419999</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>0.9</v>
+      </c>
+      <c r="Q4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0.76495771339999996</v>
+      </c>
+      <c r="D5">
+        <v>66.333523181499999</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>0.9</v>
+      </c>
+      <c r="Q5">
+        <v>0.9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>34.070887963799997</v>
+      </c>
+      <c r="D6">
+        <v>66.333523181499999</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>34.231227910200005</v>
+      </c>
+      <c r="D7">
+        <v>67.020357672750009</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>0.9</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>34.494854532250002</v>
+      </c>
+      <c r="J8">
+        <v>66.626402599350001</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>0.9</v>
+      </c>
+      <c r="Q8">
+        <v>0.9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>33.049705725000003</v>
+      </c>
+      <c r="D9">
+        <v>65.467233987</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9">
+        <v>0.9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>33.69589544275</v>
+      </c>
+      <c r="D10">
+        <v>67.121034318250011</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>0.9</v>
+      </c>
+      <c r="Q10">
+        <v>0.9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>33.385743239600004</v>
+      </c>
+      <c r="D11">
+        <v>65.219770727950007</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>0.6</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
